--- a/data/raw/Recetas.xlsx
+++ b/data/raw/Recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="51">
   <si>
     <t>producto</t>
   </si>
@@ -79,7 +79,7 @@
     <t>arcilla_kaolin</t>
   </si>
   <si>
-    <t>etiqueta</t>
+    <t>etiqueta_jabon</t>
   </si>
   <si>
     <t>unidades</t>
@@ -127,12 +127,21 @@
     <t>ae_romero</t>
   </si>
   <si>
+    <t>maica_aquamarine</t>
+  </si>
+  <si>
     <t>tubos_de_carton</t>
   </si>
   <si>
+    <t>etiqueta_balsamo</t>
+  </si>
+  <si>
     <t>nalga</t>
   </si>
   <si>
+    <t>0,552845528455285-</t>
+  </si>
+  <si>
     <t>balsamo_nalga_2</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>ae_naranja_dulce</t>
   </si>
   <si>
+    <t>maica_bronce</t>
+  </si>
+  <si>
     <t>bloqueador</t>
   </si>
   <si>
@@ -154,7 +166,7 @@
     <t>oxido_de_zinc</t>
   </si>
   <si>
-    <t>ae_frambuesa</t>
+    <t>aceite_semilla_frambuesa</t>
   </si>
 </sst>
 </file>
@@ -162,11 +174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,18 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,17 +240,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,66 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +279,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +359,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,169 +485,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,26 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,6 +592,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,15 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,147 +630,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1125,19 +1137,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.9" style="2" customWidth="true"/>
     <col min="2" max="2" width="7.9" style="2" customWidth="true"/>
-    <col min="3" max="3" width="6" style="2" customWidth="true"/>
+    <col min="3" max="3" width="7.2" style="2" customWidth="true"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="true"/>
     <col min="5" max="6" width="9.4" style="3" customWidth="true"/>
     <col min="7" max="7" width="15.9" style="2" customWidth="true"/>
@@ -1427,7 +1439,8 @@
         <v>15</v>
       </c>
       <c r="E12" s="6">
-        <v>0.546623794212219</v>
+        <f>0.546623794212219-E22</f>
+        <v>0.544623794212219</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
@@ -1683,72 +1696,72 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
+      <c r="E22" s="6">
+        <v>0.002</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.552845528455285</v>
+      <c r="E23" s="1">
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.016260162601626</v>
+      <c r="E24" s="1">
+        <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1756,16 +1769,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.0357723577235772</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
@@ -1774,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1782,16 +1795,16 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0650406504065041</v>
+        <v>0.016260162601626</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -1800,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1808,16 +1821,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
-        <v>0.146341463414634</v>
+        <v>0.0357723577235772</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
@@ -1826,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1834,16 +1847,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3">
-        <v>0.16260162601626</v>
+        <v>0.0650406504065041</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
@@ -1852,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1860,16 +1873,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3">
-        <v>0.00650406504065041</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
@@ -1878,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1886,16 +1899,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0146341463414634</v>
+        <v>0.16260162601626</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
@@ -1904,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1912,146 +1925,146 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.00650406504065041</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.0146341463414634</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.523076923076923</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.0153846153846154</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.0338461538461538</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.0615384615384615</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6">
-        <v>0.138461538461538</v>
+        <v>0.523076923076923</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
@@ -2060,24 +2073,24 @@
         <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37" s="6">
-        <v>0.153846153846154</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
@@ -2086,24 +2099,24 @@
         <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E38" s="6">
-        <v>0.141538461538462</v>
+        <v>0.0338461538461538</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
@@ -2112,24 +2125,24 @@
         <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0.0307692307692308</v>
+      <c r="D39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.0615384615384615</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
@@ -2138,33 +2151,163 @@
         <v>13</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.138461538461538</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.141538461538462</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.0307692307692308</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>44</v>
+      <c r="H44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
